--- a/01primary/src/main/resources/templete/pe.xlsx
+++ b/01primary/src/main/resources/templete/pe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="89">
   <si>
     <t>季度</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -636,6 +636,42 @@
   </si>
   <si>
     <t>{fourepscurrent}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{oneyeardate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoyeardate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threeyeardate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fouryeardate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{oneyearepstotal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoyearepstotal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threeyearepstotal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fouryearepstotal}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fouryearavarageepstotal}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -818,6 +854,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -835,33 +898,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1146,7 +1182,7 @@
   <dimension ref="A2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1159,22 +1195,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="I2" s="16"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1183,23 +1219,23 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="27"/>
+      <c r="H3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1207,44 +1243,44 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="27"/>
+      <c r="F4" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="17" t="s">
+      <c r="G4" s="27"/>
+      <c r="H4" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
-        <v>43465</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15">
-        <v>43100</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15">
-        <v>42735</v>
-      </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="15">
-        <v>42369</v>
-      </c>
-      <c r="I5" s="16"/>
+      <c r="B5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="25"/>
+      <c r="D5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="25"/>
       <c r="J5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1253,39 +1289,38 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
-        <v>1.06</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="17">
-        <v>0.99</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17">
-        <v>0.93</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17">
-        <v>0.76</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="4">
-        <f>AVERAGE(B6:I6)</f>
-        <v>0.93500000000000005</v>
+      <c r="B6" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="27"/>
+      <c r="J6" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23" t="s">
+      <c r="C7" s="21"/>
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1294,12 +1329,12 @@
         <v>12</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="22"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
@@ -1324,7 +1359,7 @@
       <c r="I8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
@@ -1408,42 +1443,42 @@
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
       <c r="J13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
       <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
       <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1474,22 +1509,22 @@
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="15">
+      <c r="C18" s="25"/>
+      <c r="D18" s="24">
         <v>43646</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15">
+      <c r="E18" s="25"/>
+      <c r="F18" s="24">
         <v>43555</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="15">
+      <c r="G18" s="25"/>
+      <c r="H18" s="24">
         <v>43465</v>
       </c>
-      <c r="I18" s="16"/>
+      <c r="I18" s="25"/>
       <c r="J18" s="2" t="s">
         <v>26</v>
       </c>
@@ -1498,26 +1533,26 @@
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="26">
         <f>D19+B20</f>
         <v>1.1599999999999999</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26">
         <f>F19+D20</f>
         <v>0.85</v>
       </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="17">
+      <c r="E19" s="27"/>
+      <c r="F19" s="26">
         <f>H19+F20</f>
         <v>0.6</v>
       </c>
-      <c r="G19" s="18"/>
-      <c r="H19" s="17">
+      <c r="G19" s="27"/>
+      <c r="H19" s="26">
         <v>0.23</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19">
+      <c r="I19" s="27"/>
+      <c r="J19" s="28">
         <v>1.1599999999999999</v>
       </c>
     </row>
@@ -1525,44 +1560,44 @@
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="26">
         <v>0.31</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="17">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26">
         <v>0.25</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17">
+      <c r="E20" s="27"/>
+      <c r="F20" s="26">
         <v>0.37</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="17">
+      <c r="G20" s="27"/>
+      <c r="H20" s="26">
         <v>0.23</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="24">
         <v>43738</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="15">
+      <c r="C21" s="25"/>
+      <c r="D21" s="24">
         <v>43465</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="15">
+      <c r="E21" s="25"/>
+      <c r="F21" s="24">
         <v>43100</v>
       </c>
-      <c r="G21" s="16"/>
-      <c r="H21" s="15">
+      <c r="G21" s="25"/>
+      <c r="H21" s="24">
         <v>42735</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="25"/>
       <c r="J21" s="2" t="s">
         <v>30</v>
       </c>
@@ -1571,54 +1606,54 @@
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="26">
         <f>0.93+2.05</f>
         <v>2.98</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="17">
+      <c r="C22" s="27"/>
+      <c r="D22" s="26">
         <v>1.06</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17">
+      <c r="E22" s="27"/>
+      <c r="F22" s="26">
         <v>0.99</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="17">
+      <c r="G22" s="27"/>
+      <c r="H22" s="26">
         <v>0.93</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="4">
         <f>AVERAGE(B22:I22)</f>
         <v>1.49</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="23" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="23" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="25" t="s">
+      <c r="I23" s="21"/>
+      <c r="J23" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1643,7 +1678,7 @@
       <c r="I24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J24" s="26"/>
+      <c r="J24" s="23"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
@@ -1729,92 +1764,46 @@
       <c r="A29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="29"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
       <c r="J29" s="8"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="29"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
       <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
       <c r="J31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1827,6 +1816,52 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01primary/src/main/resources/templete/pe.xlsx
+++ b/01primary/src/main/resources/templete/pe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>季度</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -222,66 +222,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年三季度</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年二季度</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年一季度</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>2018</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年四季度</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>股价</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -486,10 +426,6 @@
   </si>
   <si>
     <t>{oneyearpehigher}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{oneyearpedate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -666,6 +602,78 @@
   </si>
   <si>
     <t>{fourquarteravagpelower}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{onequarterpehigher}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{onequarterpeaverage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{onequarterpelower}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoquarterpehigher}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoquarterpeaverage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoquarterpelower}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threequarterpehigher}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threequarterpeaverage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threequarterpelower}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fourquarterpehigher}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fourquarterpeaverage}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fourquarterpelower}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{onequarterpedate}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{twoquarterpedate}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{threequarterpedate}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fourquarterpedate}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{oneyearpedate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{fourquarteravarageepstotal}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,14 +850,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,23 +886,14 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,8 +1177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1183,22 +1191,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="23"/>
+      <c r="B2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="14"/>
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1207,68 +1215,68 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26" t="s">
+      <c r="B3" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="15" t="s">
         <v>62</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="23"/>
+      <c r="B5" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="14"/>
       <c r="J5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1277,52 +1285,52 @@
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="24" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="24" t="s">
+      <c r="E7" s="22"/>
+      <c r="F7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="4" t="s">
+      <c r="G7" s="22"/>
+      <c r="H7" s="21" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="23" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="20"/>
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1347,38 +1355,38 @@
       <c r="I8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="21"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1386,31 +1394,31 @@
         <v>15</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1418,31 +1426,31 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -1461,48 +1469,48 @@
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
+      <c r="B13" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
+      <c r="B14" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
+      <c r="B15" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -1533,22 +1541,22 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="23"/>
-      <c r="H18" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="23"/>
+      <c r="B18" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I18" s="14"/>
       <c r="J18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1557,136 +1565,136 @@
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26" t="s">
+      <c r="B19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="15" t="s">
         <v>62</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="27"/>
+      <c r="B20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="16"/>
+      <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="23"/>
+      <c r="B21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="14"/>
       <c r="J21" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="I22" s="25"/>
+      <c r="B22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="16"/>
       <c r="J22" s="4" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="22"/>
+      <c r="D23" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="G23" s="22"/>
+      <c r="H23" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18" t="s">
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="D24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>10</v>
@@ -1695,80 +1703,104 @@
         <v>9</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J24" s="21"/>
+        <v>26</v>
+      </c>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
       <c r="D25" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>108</v>
+      </c>
       <c r="F25" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="5"/>
+        <v>39</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-      <c r="I25" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="I25" t="s">
+        <v>114</v>
+      </c>
       <c r="J25" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="F26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G26" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="H26" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="J26" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="D27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>38</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J27" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
@@ -1785,54 +1817,102 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+        <v>31</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+        <v>32</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="F5:G5"/>
@@ -1845,54 +1925,6 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
